--- a/resource/testData.xlsx
+++ b/resource/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14670" windowHeight="6315"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14670" windowHeight="6315" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,6 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="A1:J18"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>TestName</t>
   </si>
@@ -67,9 +66,6 @@
     <t>FAIL</t>
   </si>
   <si>
-    <t>1529830551216@gmail.com</t>
-  </si>
-  <si>
     <t>UserName</t>
   </si>
   <si>
@@ -79,16 +75,22 @@
     <t>runMode</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>StartLoginTest</t>
+    <t>LoginTestData</t>
+  </si>
+  <si>
+    <t>alagappan</t>
+  </si>
+  <si>
+    <t>Test123</t>
+  </si>
+  <si>
+    <t>password123</t>
+  </si>
+  <si>
+    <t>password12356</t>
+  </si>
+  <si>
+    <t>password1234568</t>
   </si>
 </sst>
 </file>
@@ -475,7 +477,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -485,7 +487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -619,9 +621,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A2:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
@@ -629,62 +633,56 @@
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1"/>
-      <c r="B2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C5" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
